--- a/Bayesian_Demo.xlsx
+++ b/Bayesian_Demo.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pm27995\OneDrive - The University of Texas at Austin\Outreach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utexas-my.sharepoint.com/personal/mpyrcz_austin_utexas_edu/Documents/Outreach/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{E6D79D49-6E0C-44C1-9565-35B20668B425}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pyrcz, Michael</author>
   </authors>
   <commentList>
-    <comment ref="N25" authorId="0" shapeId="0">
+    <comment ref="N27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0" shapeId="0">
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Michael Pyrcz, the University of Texas at Austin, Geostatistical Reservoir Modeling Class</t>
   </si>
@@ -94,43 +95,6 @@
   </si>
   <si>
     <t>Sum</t>
-  </si>
-  <si>
-    <r>
-      <t>Problem: given n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> heads out of n coin tosses is the coin fair?  What is the coins probability of heads (H)?  Is it a fair coin (H=0.5)?</t>
-    </r>
-  </si>
-  <si>
-    <t>we can use Bayes' Theorem go from Prob{ Data | H } (probability of data outcome given probability of heads)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the prior is our belief of the probability of the coin having a specific probability of heads (do we think the coin </t>
-  </si>
-  <si>
-    <t>that is easy to calculate to Prob { H | Data } (probabilty of heads given data outcome) that is not available.</t>
   </si>
   <si>
     <t>1. Data - Outcomes from Coin Tosses</t>
@@ -191,60 +155,10 @@
     <t xml:space="preserve">5. Norm_Likelihood </t>
   </si>
   <si>
-    <t xml:space="preserve">6. Prior x Likelihood </t>
-  </si>
-  <si>
     <t xml:space="preserve">7. Evidence </t>
   </si>
   <si>
     <t xml:space="preserve">8. Posteriori </t>
-  </si>
-  <si>
-    <r>
-      <t>1. Set any data outcome, Data.  Where Heads, n</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, is the number of heads and Tails, n - n</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
   </si>
   <si>
     <t>is the number of tails and n is the total number of coin tosses.</t>
@@ -257,9 +171,6 @@
   </si>
   <si>
     <t>3. The prior probabilities for each H bin are standardized to sum to 1.0 as expected for a PDF.</t>
-  </si>
-  <si>
-    <t>4. The likelihood calculated from the binomial distribution.</t>
   </si>
   <si>
     <t>5. The likelihood normalized sum to 1.0 as expected for a PDF (for plotting).</t>
@@ -295,24 +206,338 @@
     <t>3. For a naïve prior the posterior is equal to the likelihood.</t>
   </si>
   <si>
-    <t>the binomial distribution.  Evidence is the normalization constant such that the resulting posteriori PDF to sums to 1.0.</t>
+    <t>Sivia, D.S., 1996, Data Analysis, A Bayesian Tutorial, Oxford Science Publications, 189 p.</t>
   </si>
   <si>
-    <t>is fair before we toss it).  An uniform probability distribution is a naïve prior - we don't know.  Likelihood comes from</t>
+    <t>Total Tosses</t>
   </si>
   <si>
-    <t>Sivia, D.S., 1996, Data Analysis, A Bayesian Tutorial, Oxford Science Publications, 189 p.</t>
+    <t xml:space="preserve">is fair before we toss it).  An uniform probability distribution is a naïve prior - we don't know.  </t>
+  </si>
+  <si>
+    <r>
+      <t>1. Set any data outcome, Data.  Where Heads, n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>heads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, is the number of heads and Tails, n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tosses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - nheads, </t>
+    </r>
+  </si>
+  <si>
+    <t>4. The likelihood is calculated from the binomial distribution.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. Prior </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Likelihood </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prior </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is our belief of the probability of the coin having a specific probability of heads (do we think the coin </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Likelihood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> comes from the binomial distribution.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Evidence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the normalization constant such that the resulting posteriori PDF to sums to 1.0.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tosses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - the outcome from the coin tosses.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tosses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - number of coin tosses in the experiment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">heads </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - number of heads in the experiment</t>
+    </r>
+  </si>
+  <si>
+    <t>We can use Bayes' Theorem go from Prob{ Tosses | P(heads) } (probability of data outcome given probability of heads)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P(heads)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - probability of heads for a single coin toss.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Problem: given n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>heads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> heads out of n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tosses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> coin tosses what is the probability that the coin fair?  What is the coin's probability of heads (P(heads))?  Is it a fair coin (P(heads)=0.5)?</t>
+    </r>
+  </si>
+  <si>
+    <t>that is easy to calculate to Prob { P(heads) | Tosses } (probabilty of heads given data outcome) that is not available.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,14 +585,60 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +669,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -760,7 +1043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -862,7 +1145,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -885,6 +1167,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,7 +1239,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -988,7 +1279,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$26</c:f>
+              <c:f>Sheet1!$C$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1023,130 +1314,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$25:$M$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.54999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.64999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.74999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.84999999999999987</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94999999999999984</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Sheet1!$D$27:$M$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.18749999999999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18749999999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18749999999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.2499999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2499999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.2499999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2499999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.2499999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.2499999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.2499999999999993E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D047-458F-96A2-62E6AE3A8F65}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5. Norm_Likelihood </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1190,55 +1358,55 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2735224507226051E-4</c:v>
+                  <c:v>5.5555555555555566E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5877597987058508E-2</c:v>
+                  <c:v>5.5555555555555566E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6356845945650971E-2</c:v>
+                  <c:v>8.3333333333333343E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21960150576937151</c:v>
+                  <c:v>0.11111111111111113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28317418412413325</c:v>
+                  <c:v>0.16666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23168796882883641</c:v>
+                  <c:v>0.16666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11824696464504629</c:v>
+                  <c:v>0.11111111111111113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2118948648550388E-2</c:v>
+                  <c:v>8.3333333333333343E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8019290565397489E-3</c:v>
+                  <c:v>8.3333333333333343E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.702749740645416E-6</c:v>
+                  <c:v>8.3333333333333343E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D047-458F-96A2-62E6AE3A8F65}"/>
+              <c16:uniqueId val="{00000001-D047-458F-96A2-62E6AE3A8F65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:idx val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$32</c:f>
+              <c:f>Sheet1!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8. Posteriori </c:v>
+                  <c:v>5. Norm_Likelihood </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1246,7 +1414,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1257,7 +1425,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -1269,7 +1437,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$25:$M$25</c:f>
+              <c:f>Sheet1!$D$27:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1308,39 +1476,162 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$32:$M$32</c:f>
+              <c:f>Sheet1!$D$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.1195343798510105E-4</c:v>
+                  <c:v>8.9891115566330762E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8892689141034123E-2</c:v>
+                  <c:v>7.1825101434412134E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2360292066236522</c:v>
+                  <c:v>0.26420642391875593</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17930699395363364</c:v>
+                  <c:v>0.3397069903950361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2312147703299258</c:v>
+                  <c:v>0.22455367104897275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18917572117903028</c:v>
+                  <c:v>8.233211666969345E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6549919821187422E-2</c:v>
+                  <c:v>1.5377223345361705E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6225467402628079E-2</c:v>
+                  <c:v>1.0872692342335675E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2878052435902525E-3</c:v>
+                  <c:v>1.2292434835735036E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4728673330720526E-6</c:v>
+                  <c:v>3.6303522422299513E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D047-458F-96A2-62E6AE3A8F65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8. Posteriori </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94999999999999984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$34:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.2774560986716549E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4177873556550976E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18858338315963816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32329818774012425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32056064617379326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11753286596119446</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4634460227766965E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7606330518369885E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7740067565697784E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5912470171861752E-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1425,7 +1716,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1557,7 +1847,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1635,7 +1924,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2264,18 +2552,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>488156</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2295,27 +2589,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>42746</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>10967</xdr:rowOff>
+      <xdr:rowOff>73672</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 16"/>
+            <xdr:cNvPr id="6" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1133475" y="1381125"/>
-              <a:ext cx="3195521" cy="391967"/>
+              <a:off x="843643" y="1564822"/>
+              <a:ext cx="8055429" cy="522707"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2460,13 +2760,13 @@
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                     <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>𝑷𝒓𝒐𝒃</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t> </m:t>
@@ -2475,40 +2775,76 @@
                       <m:rPr>
                         <m:nor/>
                       </m:rPr>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>{ </m:t>
                     </m:r>
                     <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                        <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                        <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>H</m:t>
+                      <m:t>𝑷</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                        <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                        <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝒉𝒆𝒂𝒅𝒔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                        <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>) </m:t>
                     </m:r>
                     <m:r>
                       <m:rPr>
                         <m:nor/>
                       </m:rPr>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>|</m:t>
                     </m:r>
                     <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>Data</m:t>
+                      <m:t>𝑻𝒐𝒔𝒔𝒆𝒔</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t> }=</m:t>
@@ -2516,20 +2852,20 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
                       <m:num>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" i="1">
+                          <a:rPr lang="en-US" sz="1600" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>𝑷𝒓𝒐𝒃</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" i="1">
+                          <a:rPr lang="en-US" sz="1600" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t> </m:t>
@@ -2539,14 +2875,14 @@
                             <m:begChr m:val="{"/>
                             <m:endChr m:val="|"/>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1200" i="1">
+                              <a:rPr lang="en-US" sz="1600" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:dPr>
                           <m:e>
                             <m:r>
-                              <a:rPr lang="en-US" sz="1200" i="1">
+                              <a:rPr lang="en-US" sz="1600" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                               <m:t> </m:t>
@@ -2555,43 +2891,82 @@
                               <m:rPr>
                                 <m:nor/>
                               </m:rPr>
-                              <a:rPr lang="en-US" sz="1200">
+                              <a:rPr lang="en-US" sz="1600" b="1" i="0">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>Data</m:t>
+                              <m:t>Tosses</m:t>
                             </m:r>
                           </m:e>
                         </m:d>
                         <m:r>
-                          <m:rPr>
-                            <m:nor/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" sz="1200">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>H</m:t>
+                          <m:t>𝑷</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝒉𝒆𝒂𝒅𝒔</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t> }</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" i="1">
+                          <a:rPr lang="en-US" sz="1600" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>∙</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" i="1">
+                          <a:rPr lang="en-US" sz="1600" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>𝑷𝒓𝒐𝒃</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" i="1">
+                          <a:rPr lang="en-US" sz="1600" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t> </m:t>
@@ -2600,43 +2975,94 @@
                           <m:rPr>
                             <m:nor/>
                           </m:rPr>
-                          <a:rPr lang="en-US" sz="1200">
+                          <a:rPr lang="en-US" sz="1600">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>{ </m:t>
                         </m:r>
                         <m:r>
-                          <m:rPr>
-                            <m:nor/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" sz="1200">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝒉𝒆𝒂𝒅𝒔</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>H</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t> }</m:t>
+                          <m:t>}</m:t>
                         </m:r>
                         <m:r>
                           <m:rPr>
                             <m:nor/>
                           </m:rPr>
-                          <a:rPr lang="en-US" sz="1200"/>
+                          <a:rPr lang="en-US" sz="1600"/>
                           <m:t> </m:t>
                         </m:r>
                       </m:num>
                       <m:den>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>𝑷𝒓𝒐𝒃</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t> { </m:t>
@@ -2645,13 +3071,13 @@
                           <m:rPr>
                             <m:nor/>
                           </m:rPr>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="0">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>Data</m:t>
+                          <m:t>Tosses</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t> }</m:t>
@@ -2661,21 +3087,27 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1200"/>
+              <a:endParaRPr lang="en-US" sz="1600"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 16"/>
+            <xdr:cNvPr id="6" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1133475" y="1381125"/>
-              <a:ext cx="3195521" cy="391967"/>
+              <a:off x="843643" y="1564822"/>
+              <a:ext cx="8055429" cy="522707"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2814,47 +3246,153 @@
             <a:p>
               <a:pPr/>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                <a:rPr lang="en-US" sz="1600" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑷𝒓𝒐𝒃 "{ H|Data" }=(</a:t>
+                <a:t>𝑷𝒓𝒐𝒃 "{ </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0">
+                <a:rPr lang="en-US" sz="1600" b="1" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑷(𝒉𝒆𝒂𝒅𝒔) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑷𝒓𝒐𝒃 { "Data" ┤|"H"  }</a:t>
+                <a:t>|" 𝑻𝒐𝒔𝒔𝒆𝒔 }=(</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0">
+                <a:rPr lang="en-US" sz="1600" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑷𝒓𝒐𝒃 { </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"Tosses" ┤|</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑷(𝒉𝒆𝒂𝒅𝒔)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> }</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>∙</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0">
+                <a:rPr lang="en-US" sz="1600" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑷𝒓𝒐𝒃 "{ H"  }"</a:t>
+                <a:t>𝑷𝒓𝒐𝒃 "{ </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑷(𝒉𝒆𝒂𝒅𝒔)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0">
+                <a:rPr lang="en-US" sz="1600" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>}"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>" </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                <a:rPr lang="en-US" sz="1600" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>)/(𝑷𝒓𝒐𝒃 { "Data"  })</a:t>
+                <a:t>)/(𝑷𝒓𝒐𝒃 { "Tosses"  })</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1200"/>
+              <a:endParaRPr lang="en-US" sz="1600"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2864,28 +3402,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>830035</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>137432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>663647</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>188812</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>432325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33689</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 19"/>
+            <xdr:cNvPr id="7" name="TextBox 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="571500" y="1981200"/>
-              <a:ext cx="3454472" cy="350737"/>
+              <a:off x="2054678" y="2246539"/>
+              <a:ext cx="4704968" cy="467757"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3030,13 +3574,13 @@
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                     <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>𝑷𝒐𝒔𝒕𝒆𝒓𝒊𝒐𝒓</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>= </m:t>
@@ -3044,20 +3588,20 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
                       <m:num>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>𝑳𝒊𝒌𝒆𝒍𝒊𝒉𝒐𝒐𝒅</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" i="1">
+                          <a:rPr lang="en-US" sz="1600" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -3067,7 +3611,7 @@
                           <m:rPr>
                             <m:nor/>
                           </m:rPr>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="0">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -3077,13 +3621,13 @@
                           <m:rPr>
                             <m:nor/>
                           </m:rPr>
-                          <a:rPr lang="en-US" sz="1200"/>
+                          <a:rPr lang="en-US" sz="1600"/>
                           <m:t> </m:t>
                         </m:r>
                       </m:num>
                       <m:den>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>𝑬𝒗𝒊𝒅𝒆𝒏𝒄𝒆</m:t>
@@ -3093,21 +3637,27 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1200"/>
+              <a:endParaRPr lang="en-US" sz="1600"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 19"/>
+            <xdr:cNvPr id="7" name="TextBox 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="571500" y="1981200"/>
-              <a:ext cx="3454472" cy="350737"/>
+              <a:off x="2054678" y="2246539"/>
+              <a:ext cx="4704968" cy="467757"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3246,42 +3796,42 @@
             <a:p>
               <a:pPr/>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                <a:rPr lang="en-US" sz="1600" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝑷𝒐𝒔𝒕𝒆𝒓𝒊𝒐𝒓=  (𝑳𝒊𝒌𝒆𝒍𝒊𝒉𝒐𝒐𝒅</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0">
+                <a:rPr lang="en-US" sz="1600" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>∙</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                <a:rPr lang="en-US" sz="1600" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>"Prior</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0"/>
+                <a:rPr lang="en-US" sz="1600" i="0"/>
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" i="0">
+                <a:rPr lang="en-US" sz="1600" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>" </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                <a:rPr lang="en-US" sz="1600" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>)/𝑬𝒗𝒊𝒅𝒆𝒏𝒄𝒆</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1200"/>
+              <a:endParaRPr lang="en-US" sz="1600"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3292,27 +3842,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1532164</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>62593</xdr:rowOff>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>541564</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>183140</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177965</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 8"/>
+            <xdr:cNvPr id="8" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2756807" y="2647950"/>
-              <a:ext cx="3241221" cy="311047"/>
+              <a:off x="1464128" y="3015343"/>
+              <a:ext cx="7475766" cy="414729"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3457,13 +4013,13 @@
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                     <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>𝑷𝒓𝒐𝒃</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t> </m:t>
@@ -3473,14 +4029,14 @@
                         <m:begChr m:val="{"/>
                         <m:endChr m:val="|"/>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
                       <m:e>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t> </m:t>
@@ -3489,24 +4045,69 @@
                           <m:rPr>
                             <m:nor/>
                           </m:rPr>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="0">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>Data</m:t>
+                          <m:t>Tos</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒔𝒆𝒔</m:t>
                         </m:r>
                       </m:e>
                     </m:d>
                     <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                        <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                        <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>H</m:t>
+                      <m:t>𝑷</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                        <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                        <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝒉𝒆𝒂𝒅𝒔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                        <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)  </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t> }= </m:t>
@@ -3514,7 +4115,7 @@
                     <m:d>
                       <m:dPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -3531,7 +4132,7 @@
                               </m:mc>
                             </m:mcs>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                              <a:rPr lang="en-US" sz="1600" b="1" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
@@ -3541,14 +4142,14 @@
                               <m:sSub>
                                 <m:sSubPr>
                                   <m:ctrlPr>
-                                    <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                    <a:rPr lang="en-US" sz="1600" b="1" i="1">
                                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
                                 <m:e>
                                   <m:r>
-                                    <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                    <a:rPr lang="en-US" sz="1600" b="1" i="1">
                                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                     <m:t>𝒏</m:t>
@@ -3556,10 +4157,10 @@
                                 </m:e>
                                 <m:sub>
                                   <m:r>
-                                    <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                    <a:rPr lang="en-US" sz="1600" b="1" i="1">
                                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
-                                    <m:t>𝒉</m:t>
+                                    <m:t>𝒕𝒐𝒔𝒔𝒆𝒔</m:t>
                                   </m:r>
                                 </m:sub>
                               </m:sSub>
@@ -3570,14 +4171,14 @@
                               <m:sSub>
                                 <m:sSubPr>
                                   <m:ctrlPr>
-                                    <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                    <a:rPr lang="en-US" sz="1600" b="1" i="1">
                                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
                                 <m:e>
                                   <m:r>
-                                    <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                    <a:rPr lang="en-US" sz="1600" b="1" i="1">
                                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                     <m:t>𝒏</m:t>
@@ -3585,94 +4186,46 @@
                                 </m:e>
                                 <m:sub>
                                   <m:r>
-                                    <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                                    <a:rPr lang="en-US" sz="1600" b="1" i="1">
                                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
-                                    <m:t>𝒉</m:t>
+                                    <m:t>𝒉𝒆𝒂𝒅𝒔</m:t>
                                   </m:r>
                                 </m:sub>
                               </m:sSub>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>+</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>𝒏</m:t>
-                              </m:r>
                             </m:e>
                           </m:mr>
                         </m:m>
                       </m:e>
                     </m:d>
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <m:rPr>
-                            <m:nor/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>H</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝒏</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝒉</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:sup>
-                    </m:sSup>
                     <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t> </m:t>
+                      <m:t>𝑷</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>∙</m:t>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒉𝒆𝒂𝒅𝒔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>) ∙</m:t>
                     </m:r>
                     <m:sSup>
                       <m:sSupPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -3680,38 +4233,76 @@
                       </m:sSupPr>
                       <m:e>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>(</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>𝟏</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>−</m:t>
                         </m:r>
                         <m:r>
-                          <m:rPr>
-                            <m:nor/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>H</m:t>
+                          <m:t>𝑷</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝒉𝒆𝒂𝒅𝒔</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                            <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>) </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -3719,15 +4310,51 @@
                         </m:r>
                       </m:e>
                       <m:sup>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                                <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                                <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝒏</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="1" i="1" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝒕𝒐𝒔𝒔𝒆𝒔</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝒏</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -3736,7 +4363,7 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                              <a:rPr lang="en-US" sz="1600" b="1" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
@@ -3744,7 +4371,7 @@
                           </m:sSubPr>
                           <m:e>
                             <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                              <a:rPr lang="en-US" sz="1600" b="1" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
@@ -3753,11 +4380,11 @@
                           </m:e>
                           <m:sub>
                             <m:r>
-                              <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                              <a:rPr lang="en-US" sz="1600" b="1" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>𝒉</m:t>
+                              <m:t>𝒉𝒆𝒂𝒅𝒔</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -3766,21 +4393,27 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1200"/>
+              <a:endParaRPr lang="en-US" sz="1600"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 8"/>
+            <xdr:cNvPr id="8" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2756807" y="2647950"/>
-              <a:ext cx="3241221" cy="311047"/>
+              <a:off x="1464128" y="3015343"/>
+              <a:ext cx="7475766" cy="414729"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3919,397 +4552,87 @@
             <a:p>
               <a:pPr/>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                <a:rPr lang="en-US" sz="1600" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑷𝒓𝒐𝒃 { "Data" ┤|"H" }= (■8(𝒏_𝒉@𝒏_𝒉+𝒏)) "H" ^(𝒏_𝒉 )  </a:t>
+                <a:t>𝑷𝒓𝒐𝒃 { "Tos" 𝒔𝒆𝒔┤|</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                <a:rPr lang="en-US" sz="1600" b="1" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑷(𝒉𝒆𝒂𝒅𝒔)  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> }= (■8(𝒏_𝒕𝒐𝒔𝒔𝒆𝒔@𝒏_𝒉𝒆𝒂𝒅𝒔 ))𝑷(𝒉𝒆𝒂𝒅𝒔) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>∙〖(𝟏−"H" )〗^(𝒏−𝒏_𝒉 )</a:t>
+                <a:t>∙〖(𝟏−</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1200"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>137431</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>125186</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>153526</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>115376</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="TextBox 21"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1362074" y="2710543"/>
-              <a:ext cx="2560631" cy="180690"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="en-US"/>
-              </a:defPPr>
-              <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0" kern="1200">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
                   <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
+                </a:rPr>
+                <a:t>𝑷(𝒉𝒆𝒂𝒅𝒔) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)〗^(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0" kern="1200">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
                   <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
+                </a:rPr>
+                <a:t>𝒏_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0" kern="1200">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
                   <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="left"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑷𝒓𝒐𝒃</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>{ </m:t>
-                    </m:r>
-                    <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>H</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> }=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝐤</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1200"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="TextBox 21"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1362074" y="2710543"/>
-              <a:ext cx="2560631" cy="180690"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="en-US"/>
-              </a:defPPr>
-              <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
-                <a:spcBef>
-                  <a:spcPct val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPct val="0"/>
-                </a:spcAft>
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr b="1" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr/>
+                </a:rPr>
+                <a:t>𝒕𝒐𝒔𝒔𝒆𝒔</a:t>
+              </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                <a:rPr lang="en-US" sz="1600" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑷𝒓𝒐𝒃 "{ H" }=𝐤</a:t>
+                <a:t>−𝒏_𝒉𝒆𝒂𝒅𝒔 )</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1200"/>
+              <a:endParaRPr lang="en-US" sz="1600"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -4582,11 +4905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AV91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V42" sqref="V42"/>
+      <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4594,14 +4917,16 @@
     <col min="1" max="1" width="9.140625" style="40"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="25.42578125" style="1" customWidth="1"/>
-    <col min="4" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="9.140625" style="1"/>
-    <col min="20" max="46" width="9.140625" style="40"/>
+    <col min="4" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="9.140625" style="1"/>
+    <col min="22" max="48" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="40" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="40" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
@@ -4620,9 +4945,9 @@
       <c r="P2" s="28"/>
       <c r="Q2" s="28"/>
       <c r="R2" s="28"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
       <c r="V2" s="40"/>
       <c r="W2" s="40"/>
       <c r="X2" s="40"/>
@@ -4648,10 +4973,12 @@
       <c r="AR2" s="40"/>
       <c r="AS2" s="40"/>
       <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
     </row>
-    <row r="3" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B3" s="30"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="53" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="31"/>
@@ -4669,9 +4996,11 @@
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
       <c r="R3" s="31"/>
-      <c r="S3" s="32"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="32"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B4" s="30"/>
       <c r="C4" s="31" t="s">
         <v>0</v>
@@ -4691,9 +5020,11 @@
       <c r="P4" s="31"/>
       <c r="Q4" s="31"/>
       <c r="R4" s="31"/>
-      <c r="S4" s="32"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="32"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -4711,12 +5042,14 @@
       <c r="P5" s="31"/>
       <c r="Q5" s="31"/>
       <c r="R5" s="31"/>
-      <c r="S5" s="32"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="32"/>
     </row>
-    <row r="6" spans="1:46" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:48" ht="24" x14ac:dyDescent="0.45">
       <c r="B6" s="30"/>
-      <c r="C6" s="33" t="s">
-        <v>4</v>
+      <c r="C6" s="56" t="s">
+        <v>45</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
@@ -4733,9 +5066,11 @@
       <c r="P6" s="31"/>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
-      <c r="S6" s="32"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="32"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B7" s="30"/>
       <c r="C7" s="33"/>
       <c r="D7" s="31"/>
@@ -4753,21 +5088,22 @@
       <c r="P7" s="31"/>
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
-      <c r="S7" s="32"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="32"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="30"/>
       <c r="C8" s="33"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
-      <c r="H8" s="44" t="s">
-        <v>5</v>
-      </c>
+      <c r="H8" s="31"/>
       <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="K8" s="55" t="s">
+        <v>43</v>
+      </c>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
@@ -4775,21 +5111,22 @@
       <c r="P8" s="31"/>
       <c r="Q8" s="31"/>
       <c r="R8" s="31"/>
-      <c r="S8" s="32"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="32"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="30"/>
       <c r="C9" s="33"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
-      <c r="H9" s="44" t="s">
-        <v>7</v>
-      </c>
+      <c r="H9" s="31"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="K9" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
@@ -4797,9 +5134,11 @@
       <c r="P9" s="31"/>
       <c r="Q9" s="31"/>
       <c r="R9" s="31"/>
-      <c r="S9" s="32"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="32"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
       <c r="C10" s="33"/>
       <c r="D10" s="31"/>
@@ -4808,8 +5147,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
@@ -4817,21 +5155,22 @@
       <c r="P10" s="31"/>
       <c r="Q10" s="31"/>
       <c r="R10" s="31"/>
-      <c r="S10" s="32"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="32"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="30"/>
       <c r="C11" s="33"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
-      <c r="H11" s="31" t="s">
-        <v>6</v>
-      </c>
+      <c r="H11" s="31"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="55" t="s">
+        <v>37</v>
+      </c>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
@@ -4839,21 +5178,22 @@
       <c r="P11" s="31"/>
       <c r="Q11" s="31"/>
       <c r="R11" s="31"/>
-      <c r="S11" s="32"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="32"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="30"/>
       <c r="C12" s="33"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="31" t="s">
-        <v>39</v>
-      </c>
+      <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="K12" s="55" t="s">
+        <v>33</v>
+      </c>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
@@ -4861,21 +5201,22 @@
       <c r="P12" s="31"/>
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
-      <c r="S12" s="32"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="32"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="33"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="K13" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
@@ -4883,9 +5224,11 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
-      <c r="S13" s="32"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="32"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
       <c r="C14" s="33"/>
       <c r="D14" s="31"/>
@@ -4894,8 +5237,9 @@
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="55" t="s">
+        <v>39</v>
+      </c>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
@@ -4903,9 +5247,11 @@
       <c r="P14" s="31"/>
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
-      <c r="S14" s="32"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="32"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="33"/>
       <c r="D15" s="31"/>
@@ -4914,7 +5260,6 @@
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
@@ -4923,9 +5268,11 @@
       <c r="P15" s="31"/>
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
-      <c r="S15" s="32"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="32"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
       <c r="C16" s="33"/>
       <c r="D16" s="31"/>
@@ -4943,13 +5290,12 @@
       <c r="P16" s="31"/>
       <c r="Q16" s="31"/>
       <c r="R16" s="31"/>
-      <c r="S16" s="32"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="32"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
-      <c r="C17" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -4958,18 +5304,21 @@
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
+      <c r="L17" s="55" t="s">
+        <v>40</v>
+      </c>
       <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
-      <c r="S17" s="32"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="32"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -4978,19 +5327,22 @@
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
+      <c r="L18" s="55" t="s">
+        <v>44</v>
+      </c>
       <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="31"/>
       <c r="R18" s="31"/>
-      <c r="S18" s="32"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="32"/>
     </row>
-    <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B19" s="30"/>
-      <c r="C19" s="33" t="s">
-        <v>8</v>
+      <c r="C19" s="43" t="s">
+        <v>2</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
@@ -5000,23 +5352,23 @@
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+      <c r="L19" s="55" t="s">
+        <v>41</v>
+      </c>
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
-      <c r="S19" s="32"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="32"/>
     </row>
-    <row r="20" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B20" s="30"/>
-      <c r="C20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="19">
-        <v>5</v>
-      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
@@ -5024,23 +5376,25 @@
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
+      <c r="L20" s="55" t="s">
+        <v>42</v>
+      </c>
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
       <c r="O20" s="31"/>
       <c r="P20" s="31"/>
       <c r="Q20" s="31"/>
       <c r="R20" s="31"/>
-      <c r="S20" s="32"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="32"/>
     </row>
-    <row r="21" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="30"/>
-      <c r="C21" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="20">
-        <v>6</v>
-      </c>
+      <c r="C21" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
@@ -5055,17 +5409,28 @@
       <c r="P21" s="31"/>
       <c r="Q21" s="31"/>
       <c r="R21" s="31"/>
-      <c r="S21" s="32"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="32"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="30"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="19">
+        <v>5</v>
+      </c>
       <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
+      <c r="F22" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="52">
+        <f>D23+D22</f>
+        <v>15</v>
+      </c>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
@@ -5075,12 +5440,18 @@
       <c r="P22" s="31"/>
       <c r="Q22" s="31"/>
       <c r="R22" s="31"/>
-      <c r="S22" s="32"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="32"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="30"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="20">
+        <v>10</v>
+      </c>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -5095,13 +5466,13 @@
       <c r="P23" s="31"/>
       <c r="Q23" s="31"/>
       <c r="R23" s="31"/>
-      <c r="S23" s="32"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="32"/>
     </row>
-    <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
-      <c r="C24" s="24" t="s">
-        <v>12</v>
-      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="3"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
@@ -5117,474 +5488,478 @@
       <c r="P24" s="31"/>
       <c r="Q24" s="31"/>
       <c r="R24" s="31"/>
-      <c r="S24" s="32"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="32"/>
     </row>
-    <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
-      <c r="C25" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="E25" s="14">
-        <f>D25+0.1</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="F25" s="14">
-        <f t="shared" ref="F25:M25" si="0">E25+0.1</f>
-        <v>0.25</v>
-      </c>
-      <c r="G25" s="14">
-        <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="H25" s="14">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="I25" s="14">
-        <f t="shared" si="0"/>
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="J25" s="14">
-        <f t="shared" si="0"/>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="K25" s="14">
-        <f t="shared" si="0"/>
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="L25" s="14">
-        <f t="shared" si="0"/>
-        <v>0.84999999999999987</v>
-      </c>
-      <c r="M25" s="15">
-        <f t="shared" si="0"/>
-        <v>0.94999999999999984</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
       <c r="O25" s="31"/>
       <c r="P25" s="31"/>
       <c r="Q25" s="31"/>
       <c r="R25" s="31"/>
-      <c r="S25" s="32"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="32"/>
     </row>
-    <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
-      <c r="C26" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="45">
-        <v>0.3</v>
-      </c>
-      <c r="E26" s="46">
-        <v>0.3</v>
-      </c>
-      <c r="F26" s="46">
-        <v>0.3</v>
-      </c>
-      <c r="G26" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="I26" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="J26" s="46">
-        <f t="shared" ref="J26:M26" si="1">I26</f>
-        <v>0.1</v>
-      </c>
-      <c r="K26" s="46">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="L26" s="46">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="M26" s="47">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="N26" s="17">
-        <f>SUM(D26:M26)</f>
-        <v>1.6000000000000003</v>
-      </c>
+      <c r="C26" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="31"/>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
       <c r="R26" s="31"/>
-      <c r="S26" s="32"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="32"/>
     </row>
-    <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
-      <c r="C27" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="11">
-        <f>D26/$N$26</f>
-        <v>0.18749999999999994</v>
-      </c>
-      <c r="E27" s="12">
-        <f t="shared" ref="E27:M27" si="2">E26/$N$26</f>
-        <v>0.18749999999999994</v>
-      </c>
-      <c r="F27" s="12">
-        <f t="shared" si="2"/>
-        <v>0.18749999999999994</v>
-      </c>
-      <c r="G27" s="12">
-        <f t="shared" si="2"/>
-        <v>6.2499999999999993E-2</v>
-      </c>
-      <c r="H27" s="12">
-        <f t="shared" si="2"/>
-        <v>6.2499999999999993E-2</v>
-      </c>
-      <c r="I27" s="12">
-        <f t="shared" si="2"/>
-        <v>6.2499999999999993E-2</v>
-      </c>
-      <c r="J27" s="12">
-        <f t="shared" si="2"/>
-        <v>6.2499999999999993E-2</v>
-      </c>
-      <c r="K27" s="12">
-        <f t="shared" si="2"/>
-        <v>6.2499999999999993E-2</v>
-      </c>
-      <c r="L27" s="12">
-        <f t="shared" si="2"/>
-        <v>6.2499999999999993E-2</v>
-      </c>
-      <c r="M27" s="8">
-        <f t="shared" si="2"/>
-        <v>6.2499999999999993E-2</v>
-      </c>
-      <c r="N27" s="34"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
+      <c r="C27" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="E27" s="14">
+        <f>D27+0.1</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" ref="F27:G27" si="0">E27+0.1</f>
+        <v>0.25</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="H27" s="14">
+        <f>G27+0.1</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I27" s="14">
+        <f>H27+0.1</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="J27" s="14">
+        <f>I27+0.1</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="K27" s="14">
+        <f>J27+0.1</f>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="L27" s="14">
+        <f>K27+0.1</f>
+        <v>0.84999999999999987</v>
+      </c>
+      <c r="M27" s="15">
+        <f>L27+0.1</f>
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="Q27" s="31"/>
       <c r="R27" s="31"/>
-      <c r="S27" s="32"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="32"/>
     </row>
-    <row r="28" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
-      <c r="C28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="9">
-        <f>_xlfn.BINOM.DIST($D$20,$D$21+$D$20,D25,FALSE)</f>
-        <v>1.0612889170898441E-4</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" ref="E28:M28" si="3">_xlfn.BINOM.DIST($D$20,$D$21+$D$20,E25,FALSE)</f>
-        <v>1.3231583600361347E-2</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" si="3"/>
-        <v>8.0298900604248061E-2</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="3"/>
-        <v>0.18300473942727535</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="3"/>
-        <v>0.23598298015584965</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" si="3"/>
-        <v>0.19307698376387708</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" si="3"/>
-        <v>9.8541013537763733E-2</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="3"/>
-        <v>2.6766300201416075E-2</v>
-      </c>
-      <c r="L28" s="4">
-        <f t="shared" si="3"/>
-        <v>2.3349853412402478E-3</v>
-      </c>
-      <c r="M28" s="5">
-        <f t="shared" si="3"/>
-        <v>5.5857311425782324E-6</v>
-      </c>
-      <c r="N28" s="18">
+      <c r="C28" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="G28" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="H28" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="I28" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="J28" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="K28" s="45">
+        <v>0.15</v>
+      </c>
+      <c r="L28" s="45">
+        <f t="shared" ref="L28:M28" si="1">K28</f>
+        <v>0.15</v>
+      </c>
+      <c r="M28" s="46">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N28" s="17">
         <f>SUM(D28:M28)</f>
-        <v>0.8333492012548831</v>
-      </c>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
+        <v>1.7999999999999998</v>
+      </c>
       <c r="Q28" s="31"/>
       <c r="R28" s="31"/>
-      <c r="S28" s="32"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="32"/>
     </row>
-    <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
-      <c r="C29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="9">
+      <c r="C29" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="11">
         <f>D28/$N$28</f>
-        <v>1.2735224507226051E-4</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" ref="E29:M29" si="4">E28/$N$28</f>
-        <v>1.5877597987058508E-2</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" si="4"/>
-        <v>9.6356845945650971E-2</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="4"/>
-        <v>0.21960150576937151</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="4"/>
-        <v>0.28317418412413325</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" si="4"/>
-        <v>0.23168796882883641</v>
-      </c>
-      <c r="J29" s="4">
-        <f t="shared" si="4"/>
-        <v>0.11824696464504629</v>
-      </c>
-      <c r="K29" s="4">
-        <f t="shared" si="4"/>
-        <v>3.2118948648550388E-2</v>
-      </c>
-      <c r="L29" s="4">
-        <f t="shared" si="4"/>
-        <v>2.8019290565397489E-3</v>
-      </c>
-      <c r="M29" s="5">
-        <f t="shared" si="4"/>
-        <v>6.702749740645416E-6</v>
+        <v>5.5555555555555566E-2</v>
+      </c>
+      <c r="E29" s="12">
+        <f>E28/$N$28</f>
+        <v>5.5555555555555566E-2</v>
+      </c>
+      <c r="F29" s="12">
+        <f>F28/$N$28</f>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="G29" s="12">
+        <f>G28/$N$28</f>
+        <v>0.11111111111111113</v>
+      </c>
+      <c r="H29" s="12">
+        <f>H28/$N$28</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="I29" s="12">
+        <f>I28/$N$28</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="J29" s="12">
+        <f>J28/$N$28</f>
+        <v>0.11111111111111113</v>
+      </c>
+      <c r="K29" s="12">
+        <f>K28/$N$28</f>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="L29" s="12">
+        <f>L28/$N$28</f>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="M29" s="8">
+        <f>M28/$N$28</f>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="N29" s="34"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
       <c r="Q29" s="31"/>
       <c r="R29" s="31"/>
-      <c r="S29" s="32"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="32"/>
     </row>
-    <row r="30" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="25" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D30" s="9">
-        <f>D26*D28</f>
-        <v>3.1838667512695321E-5</v>
+        <f>_xlfn.BINOM.DIST($D$22,$D$23+$D$22,D27,FALSE)</f>
+        <v>5.618771964165162E-4</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" ref="E30:M30" si="5">E26*E28</f>
-        <v>3.9694750801084044E-3</v>
+        <f t="shared" ref="E30:O30" si="2">_xlfn.BINOM.DIST($D$22,$D$23+$D$22,E27,FALSE)</f>
+        <v>4.4895300689109803E-2</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="5"/>
-        <v>2.4089670181274416E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.16514598112553358</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="5"/>
-        <v>1.8300473942727536E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.2123386834880355</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="5"/>
-        <v>2.3598298015584968E-2</v>
+        <f>_xlfn.BINOM.DIST($D$22,$D$23+$D$22,H27,FALSE)</f>
+        <v>0.14036046425626042</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="5"/>
-        <v>1.9307698376387711E-2</v>
+        <f>_xlfn.BINOM.DIST($D$22,$D$23+$D$22,I27,FALSE)</f>
+        <v>5.1462859925538659E-2</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="5"/>
-        <v>9.8541013537763733E-3</v>
+        <f>_xlfn.BINOM.DIST($D$22,$D$23+$D$22,J27,FALSE)</f>
+        <v>9.6117520486069495E-3</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="5"/>
-        <v>2.6766300201416077E-3</v>
+        <f>_xlfn.BINOM.DIST($D$22,$D$23+$D$22,K27,FALSE)</f>
+        <v>6.7961309105158102E-4</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="5"/>
-        <v>2.334985341240248E-4</v>
+        <f>_xlfn.BINOM.DIST($D$22,$D$23+$D$22,L27,FALSE)</f>
+        <v>7.6835611385186966E-6</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="5"/>
-        <v>5.585731142578233E-7</v>
+        <f>_xlfn.BINOM.DIST($D$22,$D$23+$D$22,M27,FALSE)</f>
+        <v>2.2692032766724301E-10</v>
       </c>
       <c r="N30" s="18">
         <f>SUM(D30:M30)</f>
-        <v>0.10206224274475199</v>
-      </c>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
+        <v>0.62506421560861192</v>
+      </c>
       <c r="Q30" s="31"/>
       <c r="R30" s="31"/>
-      <c r="S30" s="32"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="32"/>
     </row>
-    <row r="31" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="25" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D31" s="9">
-        <f>$N$30</f>
-        <v>0.10206224274475199</v>
+        <f>D30/$N$30</f>
+        <v>8.9891115566330762E-4</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" ref="E31:M31" si="6">$N$30</f>
-        <v>0.10206224274475199</v>
+        <f>E30/$N$30</f>
+        <v>7.1825101434412134E-2</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="6"/>
-        <v>0.10206224274475199</v>
+        <f>F30/$N$30</f>
+        <v>0.26420642391875593</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="6"/>
-        <v>0.10206224274475199</v>
+        <f>G30/$N$30</f>
+        <v>0.3397069903950361</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="6"/>
-        <v>0.10206224274475199</v>
+        <f>H30/$N$30</f>
+        <v>0.22455367104897275</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="6"/>
-        <v>0.10206224274475199</v>
+        <f>I30/$N$30</f>
+        <v>8.233211666969345E-2</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="6"/>
-        <v>0.10206224274475199</v>
+        <f>J30/$N$30</f>
+        <v>1.5377223345361705E-2</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="6"/>
-        <v>0.10206224274475199</v>
+        <f>K30/$N$30</f>
+        <v>1.0872692342335675E-3</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="6"/>
-        <v>0.10206224274475199</v>
+        <f>L30/$N$30</f>
+        <v>1.2292434835735036E-5</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="6"/>
-        <v>0.10206224274475199</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
+        <f>M30/$N$30</f>
+        <v>3.6303522422299513E-10</v>
+      </c>
+      <c r="N31" s="34"/>
       <c r="Q31" s="31"/>
       <c r="R31" s="31"/>
-      <c r="S31" s="32"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="32"/>
     </row>
-    <row r="32" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
-      <c r="C32" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="10">
-        <f>D30/D31</f>
-        <v>3.1195343798510105E-4</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" ref="E32:M32" si="7">E30/E31</f>
-        <v>3.8892689141034123E-2</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="shared" si="7"/>
-        <v>0.2360292066236522</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" si="7"/>
-        <v>0.17930699395363364</v>
-      </c>
-      <c r="H32" s="6">
-        <f t="shared" si="7"/>
-        <v>0.2312147703299258</v>
-      </c>
-      <c r="I32" s="6">
-        <f t="shared" si="7"/>
-        <v>0.18917572117903028</v>
-      </c>
-      <c r="J32" s="6">
-        <f t="shared" si="7"/>
-        <v>9.6549919821187422E-2</v>
-      </c>
-      <c r="K32" s="6">
-        <f t="shared" si="7"/>
-        <v>2.6225467402628079E-2</v>
-      </c>
-      <c r="L32" s="6">
-        <f t="shared" si="7"/>
-        <v>2.2878052435902525E-3</v>
-      </c>
-      <c r="M32" s="7">
-        <f t="shared" si="7"/>
-        <v>5.4728673330720526E-6</v>
+      <c r="C32" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="9">
+        <f>D28*D30</f>
+        <v>5.6187719641651624E-5</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" ref="E32:O32" si="3">E28*E30</f>
+        <v>4.4895300689109805E-3</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="3"/>
+        <v>2.4771897168830038E-2</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="3"/>
+        <v>4.2467736697607103E-2</v>
+      </c>
+      <c r="H32" s="4">
+        <f>H28*H30</f>
+        <v>4.2108139276878127E-2</v>
+      </c>
+      <c r="I32" s="4">
+        <f>I28*I30</f>
+        <v>1.5438857977661598E-2</v>
+      </c>
+      <c r="J32" s="4">
+        <f>J28*J30</f>
+        <v>1.92235040972139E-3</v>
+      </c>
+      <c r="K32" s="4">
+        <f>K28*K30</f>
+        <v>1.0194196365773715E-4</v>
+      </c>
+      <c r="L32" s="4">
+        <f>L28*L30</f>
+        <v>1.1525341707778044E-6</v>
+      </c>
+      <c r="M32" s="5">
+        <f>M28*M30</f>
+        <v>3.4038049150086453E-11</v>
       </c>
       <c r="N32" s="18">
         <f>SUM(D32:M32)</f>
-        <v>1</v>
-      </c>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
+        <v>0.13135779385111743</v>
+      </c>
       <c r="Q32" s="31"/>
       <c r="R32" s="31"/>
-      <c r="S32" s="32"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="32"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
+      <c r="C33" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="9">
+        <f>$N$32</f>
+        <v>0.13135779385111743</v>
+      </c>
+      <c r="E33" s="4">
+        <f>$N$32</f>
+        <v>0.13135779385111743</v>
+      </c>
+      <c r="F33" s="4">
+        <f>$N$32</f>
+        <v>0.13135779385111743</v>
+      </c>
+      <c r="G33" s="4">
+        <f>$N$32</f>
+        <v>0.13135779385111743</v>
+      </c>
+      <c r="H33" s="4">
+        <f>$N$32</f>
+        <v>0.13135779385111743</v>
+      </c>
+      <c r="I33" s="4">
+        <f>$N$32</f>
+        <v>0.13135779385111743</v>
+      </c>
+      <c r="J33" s="4">
+        <f>$N$32</f>
+        <v>0.13135779385111743</v>
+      </c>
+      <c r="K33" s="4">
+        <f>$N$32</f>
+        <v>0.13135779385111743</v>
+      </c>
+      <c r="L33" s="4">
+        <f>$N$32</f>
+        <v>0.13135779385111743</v>
+      </c>
+      <c r="M33" s="5">
+        <f>$N$32</f>
+        <v>0.13135779385111743</v>
+      </c>
       <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
-      <c r="S33" s="32"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="32"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
+      <c r="C34" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="10">
+        <f>D32/D33</f>
+        <v>4.2774560986716549E-4</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" ref="E34:O34" si="4">E32/E33</f>
+        <v>3.4177873556550976E-2</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.18858338315963816</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.32329818774012425</v>
+      </c>
+      <c r="H34" s="6">
+        <f>H32/H33</f>
+        <v>0.32056064617379326</v>
+      </c>
+      <c r="I34" s="6">
+        <f>I32/I33</f>
+        <v>0.11753286596119446</v>
+      </c>
+      <c r="J34" s="6">
+        <f>J32/J33</f>
+        <v>1.4634460227766965E-2</v>
+      </c>
+      <c r="K34" s="6">
+        <f>K32/K33</f>
+        <v>7.7606330518369885E-4</v>
+      </c>
+      <c r="L34" s="6">
+        <f>L32/L33</f>
+        <v>8.7740067565697784E-6</v>
+      </c>
+      <c r="M34" s="7">
+        <f>M32/M33</f>
+        <v>2.5912470171861752E-10</v>
+      </c>
+      <c r="N34" s="18">
+        <f>SUM(D34:M34)</f>
+        <v>1.0000000000000002</v>
+      </c>
       <c r="Q34" s="31"/>
       <c r="R34" s="31"/>
-      <c r="S34" s="32"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="32"/>
     </row>
-    <row r="35" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
@@ -5593,9 +5968,7 @@
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
       <c r="I35" s="31"/>
-      <c r="J35" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="J35" s="31"/>
       <c r="K35" s="31"/>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
@@ -5604,9 +5977,11 @@
       <c r="P35" s="31"/>
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
-      <c r="S35" s="32"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="32"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -5615,20 +5990,22 @@
       <c r="G36" s="31"/>
       <c r="H36" s="31"/>
       <c r="I36" s="31"/>
-      <c r="J36" s="31" t="s">
-        <v>22</v>
-      </c>
+      <c r="J36" s="31"/>
       <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
+      <c r="L36" s="33" t="s">
+        <v>5</v>
+      </c>
       <c r="M36" s="31"/>
       <c r="N36" s="31"/>
       <c r="O36" s="31"/>
       <c r="P36" s="31"/>
       <c r="Q36" s="31"/>
       <c r="R36" s="31"/>
-      <c r="S36" s="32"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="32"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B37" s="30"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
@@ -5637,20 +6014,22 @@
       <c r="G37" s="31"/>
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
-      <c r="J37" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="J37" s="31"/>
       <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
+      <c r="L37" s="31" t="s">
+        <v>34</v>
+      </c>
       <c r="M37" s="31"/>
       <c r="N37" s="31"/>
       <c r="O37" s="31"/>
       <c r="P37" s="31"/>
       <c r="Q37" s="31"/>
       <c r="R37" s="31"/>
-      <c r="S37" s="32"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
@@ -5659,20 +6038,22 @@
       <c r="G38" s="31"/>
       <c r="H38" s="31"/>
       <c r="I38" s="31"/>
-      <c r="J38" s="31" t="s">
-        <v>23</v>
-      </c>
+      <c r="J38" s="31"/>
       <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
+      <c r="L38" s="31" t="s">
+        <v>16</v>
+      </c>
       <c r="M38" s="31"/>
       <c r="N38" s="31"/>
       <c r="O38" s="31"/>
       <c r="P38" s="31"/>
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
-      <c r="S38" s="32"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="32"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
@@ -5681,20 +6062,22 @@
       <c r="G39" s="31"/>
       <c r="H39" s="31"/>
       <c r="I39" s="31"/>
-      <c r="J39" s="31" t="s">
-        <v>24</v>
-      </c>
+      <c r="J39" s="31"/>
       <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
+      <c r="L39" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="M39" s="31"/>
       <c r="N39" s="31"/>
       <c r="O39" s="31"/>
       <c r="P39" s="31"/>
       <c r="Q39" s="31"/>
       <c r="R39" s="31"/>
-      <c r="S39" s="32"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="32"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
@@ -5703,20 +6086,22 @@
       <c r="G40" s="31"/>
       <c r="H40" s="31"/>
       <c r="I40" s="31"/>
-      <c r="J40" s="31" t="s">
-        <v>25</v>
-      </c>
+      <c r="J40" s="31"/>
       <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
+      <c r="L40" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="M40" s="31"/>
       <c r="N40" s="31"/>
       <c r="O40" s="31"/>
       <c r="P40" s="31"/>
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
-      <c r="S40" s="32"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -5725,20 +6110,22 @@
       <c r="G41" s="31"/>
       <c r="H41" s="31"/>
       <c r="I41" s="31"/>
-      <c r="J41" s="31" t="s">
-        <v>26</v>
-      </c>
+      <c r="J41" s="31"/>
       <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
+      <c r="L41" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="M41" s="31"/>
       <c r="N41" s="31"/>
       <c r="O41" s="31"/>
       <c r="P41" s="31"/>
       <c r="Q41" s="31"/>
       <c r="R41" s="31"/>
-      <c r="S41" s="32"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
@@ -5747,20 +6134,22 @@
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
-      <c r="J42" s="31" t="s">
-        <v>27</v>
-      </c>
+      <c r="J42" s="31"/>
       <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
+      <c r="L42" s="31" t="s">
+        <v>19</v>
+      </c>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
       <c r="O42" s="31"/>
       <c r="P42" s="31"/>
       <c r="Q42" s="31"/>
       <c r="R42" s="31"/>
-      <c r="S42" s="32"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
@@ -5769,20 +6158,22 @@
       <c r="G43" s="31"/>
       <c r="H43" s="31"/>
       <c r="I43" s="31"/>
-      <c r="J43" s="31" t="s">
-        <v>28</v>
-      </c>
+      <c r="J43" s="31"/>
       <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
+      <c r="L43" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="31"/>
       <c r="P43" s="31"/>
       <c r="Q43" s="31"/>
       <c r="R43" s="31"/>
-      <c r="S43" s="32"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -5791,20 +6182,22 @@
       <c r="G44" s="31"/>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
-      <c r="J44" s="31" t="s">
-        <v>29</v>
-      </c>
+      <c r="J44" s="31"/>
       <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
+      <c r="L44" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="M44" s="31"/>
       <c r="N44" s="31"/>
       <c r="O44" s="31"/>
       <c r="P44" s="31"/>
       <c r="Q44" s="31"/>
       <c r="R44" s="31"/>
-      <c r="S44" s="32"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="32"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="30"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
@@ -5813,20 +6206,22 @@
       <c r="G45" s="31"/>
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
-      <c r="J45" s="31" t="s">
-        <v>30</v>
-      </c>
+      <c r="J45" s="31"/>
       <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
+      <c r="L45" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="M45" s="31"/>
       <c r="N45" s="31"/>
       <c r="O45" s="31"/>
       <c r="P45" s="31"/>
       <c r="Q45" s="31"/>
       <c r="R45" s="31"/>
-      <c r="S45" s="32"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="32"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
@@ -5835,20 +6230,22 @@
       <c r="G46" s="31"/>
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
-      <c r="J46" s="31" t="s">
-        <v>31</v>
-      </c>
+      <c r="J46" s="31"/>
       <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
+      <c r="L46" s="31" t="s">
+        <v>22</v>
+      </c>
       <c r="M46" s="31"/>
       <c r="N46" s="31"/>
       <c r="O46" s="31"/>
       <c r="P46" s="31"/>
       <c r="Q46" s="31"/>
       <c r="R46" s="31"/>
-      <c r="S46" s="32"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="32"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="30"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
@@ -5859,16 +6256,20 @@
       <c r="I47" s="31"/>
       <c r="J47" s="31"/>
       <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
+      <c r="L47" s="31" t="s">
+        <v>23</v>
+      </c>
       <c r="M47" s="31"/>
       <c r="N47" s="31"/>
       <c r="O47" s="31"/>
       <c r="P47" s="31"/>
       <c r="Q47" s="31"/>
       <c r="R47" s="31"/>
-      <c r="S47" s="32"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="32"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="30"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
@@ -5877,20 +6278,22 @@
       <c r="G48" s="31"/>
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
-      <c r="J48" s="33" t="s">
-        <v>32</v>
-      </c>
+      <c r="J48" s="31"/>
       <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
+      <c r="L48" s="31" t="s">
+        <v>24</v>
+      </c>
       <c r="M48" s="31"/>
       <c r="N48" s="31"/>
       <c r="O48" s="31"/>
       <c r="P48" s="31"/>
       <c r="Q48" s="31"/>
       <c r="R48" s="31"/>
-      <c r="S48" s="32"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="32"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" s="30"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
@@ -5899,9 +6302,7 @@
       <c r="G49" s="31"/>
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
-      <c r="J49" s="31" t="s">
-        <v>33</v>
-      </c>
+      <c r="J49" s="31"/>
       <c r="K49" s="31"/>
       <c r="L49" s="31"/>
       <c r="M49" s="31"/>
@@ -5910,9 +6311,11 @@
       <c r="P49" s="31"/>
       <c r="Q49" s="31"/>
       <c r="R49" s="31"/>
-      <c r="S49" s="32"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="32"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" s="30"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
@@ -5921,44 +6324,46 @@
       <c r="G50" s="31"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
-      <c r="J50" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="J50" s="31"/>
       <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
+      <c r="L50" s="33" t="s">
+        <v>25</v>
+      </c>
       <c r="M50" s="31"/>
       <c r="N50" s="31"/>
       <c r="O50" s="31"/>
       <c r="P50" s="31"/>
       <c r="Q50" s="31"/>
       <c r="R50" s="31"/>
-      <c r="S50" s="32"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="32"/>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="30"/>
-      <c r="C51" s="51" t="s">
-        <v>40</v>
-      </c>
+      <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="31"/>
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
-      <c r="J51" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="J51" s="31"/>
       <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
+      <c r="L51" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="M51" s="31"/>
       <c r="N51" s="31"/>
       <c r="O51" s="31"/>
       <c r="P51" s="31"/>
       <c r="Q51" s="31"/>
       <c r="R51" s="31"/>
-      <c r="S51" s="32"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="32"/>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" s="30"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -5967,53 +6372,105 @@
       <c r="G52" s="31"/>
       <c r="H52" s="31"/>
       <c r="I52" s="31"/>
-      <c r="J52" s="31" t="s">
-        <v>37</v>
-      </c>
+      <c r="J52" s="31"/>
       <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
+      <c r="L52" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="M52" s="31"/>
       <c r="N52" s="31"/>
       <c r="O52" s="31"/>
       <c r="P52" s="31"/>
       <c r="Q52" s="31"/>
       <c r="R52" s="31"/>
-      <c r="S52" s="32"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="32"/>
     </row>
-    <row r="53" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="35"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="39"/>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B53" s="30"/>
+      <c r="C53" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="32"/>
     </row>
-    <row r="54" spans="2:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="41"/>
-      <c r="D54" s="42"/>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B54" s="30"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="2:19" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:19" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:19" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:19" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:19" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:19" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:19" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:19" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:19" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:19" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="39"/>
+    </row>
+    <row r="56" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="41"/>
+      <c r="D56" s="42"/>
+    </row>
+    <row r="57" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:21" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6039,10 +6496,294 @@
     <row r="87" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="88" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="89" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100823D1B5342B3F042933FD523EE3629B5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="02a2629e4879369c954cdffca173880a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="afb4fb6b-f1a5-4d85-ba97-c4471c5b21f7" xmlns:ns4="b945c3e8-53f6-48d2-b77e-68d71228ccad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdf7ecfd49580b25d589f0815519707b" ns3:_="" ns4:_="">
+    <xsd:import namespace="afb4fb6b-f1a5-4d85-ba97-c4471c5b21f7"/>
+    <xsd:import namespace="b945c3e8-53f6-48d2-b77e-68d71228ccad"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="afb4fb6b-f1a5-4d85-ba97-c4471c5b21f7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b945c3e8-53f6-48d2-b77e-68d71228ccad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Sharing Hint Hash" ma:description="" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4273DE7-CE9E-4682-AFC3-974C41285A99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="afb4fb6b-f1a5-4d85-ba97-c4471c5b21f7"/>
+    <ds:schemaRef ds:uri="b945c3e8-53f6-48d2-b77e-68d71228ccad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{182ACC43-1804-45BB-86A7-44387E87AB7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CAEFAB8-A91C-48D8-9E1F-EA877985673C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b945c3e8-53f6-48d2-b77e-68d71228ccad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="afb4fb6b-f1a5-4d85-ba97-c4471c5b21f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Bayesian_Demo.xlsx
+++ b/Bayesian_Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utexas-my.sharepoint.com/personal/mpyrcz_austin_utexas_edu/Documents/Outreach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{E6D79D49-6E0C-44C1-9565-35B20668B425}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{E6D79D49-6E0C-44C1-9565-35B20668B425}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C9051355-FD84-4D19-8D8D-59F29D292B9B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>Michael Pyrcz, the University of Texas at Austin, Geostatistical Reservoir Modeling Class</t>
   </si>
@@ -1043,7 +1043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,9 +1172,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -4909,7 +4906,7 @@
   <dimension ref="A1:AV91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD34" sqref="AD34"/>
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5048,7 +5045,7 @@
     </row>
     <row r="6" spans="1:48" ht="24" x14ac:dyDescent="0.45">
       <c r="B6" s="30"/>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="55" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="31"/>
@@ -5101,7 +5098,7 @@
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="54" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="31"/>
@@ -5124,7 +5121,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="54" t="s">
         <v>46</v>
       </c>
       <c r="L9" s="31"/>
@@ -5147,7 +5144,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="K10" s="55"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
@@ -5168,7 +5165,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="54" t="s">
         <v>37</v>
       </c>
       <c r="L11" s="31"/>
@@ -5191,7 +5188,7 @@
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="54" t="s">
         <v>33</v>
       </c>
       <c r="L12" s="31"/>
@@ -5214,7 +5211,7 @@
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="K13" s="55" t="s">
+      <c r="K13" s="54" t="s">
         <v>38</v>
       </c>
       <c r="L13" s="31"/>
@@ -5237,7 +5234,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="54" t="s">
         <v>39</v>
       </c>
       <c r="L14" s="31"/>
@@ -5304,7 +5301,7 @@
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
-      <c r="L17" s="55" t="s">
+      <c r="L17" s="54" t="s">
         <v>40</v>
       </c>
       <c r="M17" s="31"/>
@@ -5327,7 +5324,7 @@
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
-      <c r="L18" s="55" t="s">
+      <c r="L18" s="54" t="s">
         <v>44</v>
       </c>
       <c r="M18" s="31"/>
@@ -5352,7 +5349,7 @@
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
-      <c r="L19" s="55" t="s">
+      <c r="L19" s="54" t="s">
         <v>41</v>
       </c>
       <c r="M19" s="31"/>
@@ -5376,7 +5373,7 @@
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
-      <c r="L20" s="55" t="s">
+      <c r="L20" s="54" t="s">
         <v>42</v>
       </c>
       <c r="M20" s="31"/>
@@ -5429,8 +5426,8 @@
         <f>D23+D22</f>
         <v>15</v>
       </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
